--- a/IPL/Kolkata Knight Riders/Shivam Mavi .xlsx
+++ b/IPL/Kolkata Knight Riders/Shivam Mavi .xlsx
@@ -408,10 +408,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C2" t="str">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
         <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>

--- a/IPL/Kolkata Knight Riders/Shivam Mavi .xlsx
+++ b/IPL/Kolkata Knight Riders/Shivam Mavi .xlsx
@@ -408,10 +408,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C3" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C4" t="str">
+        <v>9</v>
+      </c>
+      <c r="D4" t="str">
+        <v>10</v>
+      </c>
+      <c r="E4" t="str">
         <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>3</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
